--- a/Results/Results_Sept18/3-way per site.xlsx
+++ b/Results/Results_Sept18/3-way per site.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel_anstett/Dropbox/a_Resurrection/Results/Results_Sept18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E159E7-7600-3046-872B-9949CC9A35B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE90DEBC-C396-814C-BA5B-46C3FF44A9DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{AAF70897-7F89-164D-BA20-062B294B46E4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="49">
   <si>
     <t>Site</t>
   </si>
@@ -163,6 +163,21 @@
   </si>
   <si>
     <t>CMDA*D + lag_1*D model. Marginal</t>
+  </si>
+  <si>
+    <t>CMDA * Lag * Drought</t>
+  </si>
+  <si>
+    <t>CMDA vs. Lag</t>
+  </si>
+  <si>
+    <t>CMDA</t>
+  </si>
+  <si>
+    <t>Lag</t>
+  </si>
+  <si>
+    <t>Deer Creek</t>
   </si>
 </sst>
 </file>
@@ -178,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -198,12 +219,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744DE07A-9462-9E4E-9E8E-E962A4876A23}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -531,269 +556,403 @@
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="13.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>26</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
+      <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>